--- a/experimental results/samples.xlsx
+++ b/experimental results/samples.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae5bf88016273ff2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDL_DKS\rs485\experimental results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32769149-8146-4AFE-A3DE-93BA4950DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A84317C-41BD-4C60-8B55-E9C917D51915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CA0F9EA-04C2-4118-8058-1A1692143A8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA0F9EA-04C2-4118-8058-1A1692143A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -66,6 +66,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,21 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDD049E-D856-4D98-B937-385E9A068063}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E81" sqref="E1:E81"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>44351.541677528097</v>
+        <v>45812.541678240741</v>
       </c>
       <c r="B1" s="1">
         <v>33.799999999999997</v>
@@ -414,10 +414,11 @@
       <c r="G1" s="1">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44351.542217000497</v>
+        <v>45812.542222222219</v>
       </c>
       <c r="B2" s="1">
         <v>34.200000000000003</v>
@@ -437,10 +438,11 @@
       <c r="G2" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44351.542503889403</v>
+        <v>45812.542500000003</v>
       </c>
       <c r="B3" s="1">
         <v>34.700000000000003</v>
@@ -460,10 +462,11 @@
       <c r="G3" s="1">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44351.542790981803</v>
+        <v>45812.54278935185</v>
       </c>
       <c r="B4" s="1">
         <v>34.700000000000003</v>
@@ -483,10 +486,11 @@
       <c r="G4" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44351.543078529998</v>
+        <v>45812.543078703704</v>
       </c>
       <c r="B5" s="1">
         <v>35.200000000000003</v>
@@ -506,10 +510,11 @@
       <c r="G5" s="1">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44351.543365740101</v>
+        <v>45812.543368055558</v>
       </c>
       <c r="B6" s="1">
         <v>35.200000000000003</v>
@@ -529,10 +534,11 @@
       <c r="G6" s="1">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>44351.543653362904</v>
+        <v>45812.543657407405</v>
       </c>
       <c r="B7" s="1">
         <v>35.200000000000003</v>
@@ -552,10 +558,11 @@
       <c r="G7" s="1">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44351.543940747397</v>
+        <v>45812.543935185182</v>
       </c>
       <c r="B8" s="1">
         <v>35.200000000000003</v>
@@ -575,10 +582,11 @@
       <c r="G8" s="1">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44351.544228224499</v>
+        <v>45812.544224537036</v>
       </c>
       <c r="B9" s="1">
         <v>35.6</v>
@@ -598,10 +606,11 @@
       <c r="G9" s="1">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44351.5445164622</v>
+        <v>45812.54451388889</v>
       </c>
       <c r="B10" s="1">
         <v>35.6</v>
@@ -621,10 +630,11 @@
       <c r="G10" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44351.544804115903</v>
+        <v>45812.544803240744</v>
       </c>
       <c r="B11" s="1">
         <v>35.6</v>
@@ -644,10 +654,11 @@
       <c r="G11" s="1">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44351.545091246902</v>
+        <v>45812.545092592591</v>
       </c>
       <c r="B12" s="1">
         <v>36.299999999999997</v>
@@ -667,10 +678,11 @@
       <c r="G12" s="1">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>44351.5453774954</v>
+        <v>45812.545381944445</v>
       </c>
       <c r="B13" s="1">
         <v>35.6</v>
@@ -690,10 +702,11 @@
       <c r="G13" s="1">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44351.5456647338</v>
+        <v>45812.545659722222</v>
       </c>
       <c r="B14" s="1">
         <v>35.6</v>
@@ -713,10 +726,11 @@
       <c r="G14" s="1">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44351.545951846703</v>
+        <v>45812.545949074076</v>
       </c>
       <c r="B15" s="1">
         <v>35.6</v>
@@ -736,10 +750,11 @@
       <c r="G15" s="1">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44351.546239722004</v>
+        <v>45812.546238425923</v>
       </c>
       <c r="B16" s="1">
         <v>35.6</v>
@@ -759,10 +774,11 @@
       <c r="G16" s="1">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44351.546526344202</v>
+        <v>45812.546527777777</v>
       </c>
       <c r="B17" s="1">
         <v>35.6</v>
@@ -782,10 +798,11 @@
       <c r="G17" s="1">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44351.546813293098</v>
+        <v>45812.546817129631</v>
       </c>
       <c r="B18" s="1">
         <v>35.6</v>
@@ -805,10 +822,11 @@
       <c r="G18" s="1">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44351.547100524098</v>
+        <v>45812.547094907408</v>
       </c>
       <c r="B19" s="1">
         <v>35.6</v>
@@ -828,10 +846,11 @@
       <c r="G19" s="1">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44351.547387921302</v>
+        <v>45812.547384259262</v>
       </c>
       <c r="B20" s="1">
         <v>35.6</v>
@@ -851,10 +870,11 @@
       <c r="G20" s="1">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44351.547674951798</v>
+        <v>45812.547673611109</v>
       </c>
       <c r="B21" s="1">
         <v>36.299999999999997</v>
@@ -874,10 +894,11 @@
       <c r="G21" s="1">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44351.5479630872</v>
+        <v>45812.547962962963</v>
       </c>
       <c r="B22" s="1">
         <v>36.299999999999997</v>
@@ -897,10 +918,11 @@
       <c r="G22" s="1">
         <v>63.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44351.548250639702</v>
+        <v>45812.548252314817</v>
       </c>
       <c r="B23" s="1">
         <v>35.6</v>
@@ -920,10 +942,11 @@
       <c r="G23" s="1">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44351.548536404604</v>
+        <v>45812.548541666663</v>
       </c>
       <c r="B24" s="1">
         <v>36.299999999999997</v>
@@ -943,10 +966,11 @@
       <c r="G24" s="1">
         <v>63.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44351.5488233207</v>
+        <v>45812.548819444448</v>
       </c>
       <c r="B25" s="1">
         <v>35.6</v>
@@ -966,10 +990,11 @@
       <c r="G25" s="1">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44351.549110209598</v>
+        <v>45812.549108796295</v>
       </c>
       <c r="B26" s="1">
         <v>35.6</v>
@@ -989,10 +1014,11 @@
       <c r="G26" s="1">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44351.549397428098</v>
+        <v>45812.549398148149</v>
       </c>
       <c r="B27" s="1">
         <v>35.6</v>
@@ -1012,10 +1038,11 @@
       <c r="G27" s="1">
         <v>63.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>44351.549684583799</v>
+        <v>45812.549687500003</v>
       </c>
       <c r="B28" s="1">
         <v>35.6</v>
@@ -1035,10 +1062,11 @@
       <c r="G28" s="1">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44351.549971780201</v>
+        <v>45812.549976851849</v>
       </c>
       <c r="B29" s="1">
         <v>36.299999999999997</v>
@@ -1058,10 +1086,11 @@
       <c r="G29" s="1">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>44351.5502590018</v>
+        <v>45812.550254629627</v>
       </c>
       <c r="B30" s="1">
         <v>36.299999999999997</v>
@@ -1081,10 +1110,11 @@
       <c r="G30" s="1">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44351.550547316401</v>
+        <v>45812.550543981481</v>
       </c>
       <c r="B31" s="1">
         <v>36.299999999999997</v>
@@ -1104,10 +1134,11 @@
       <c r="G31" s="1">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>44351.5508331858</v>
+        <v>45812.550833333335</v>
       </c>
       <c r="B32" s="1">
         <v>36.299999999999997</v>
@@ -1127,10 +1158,11 @@
       <c r="G32" s="1">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>44351.551121352401</v>
+        <v>45812.551122685189</v>
       </c>
       <c r="B33" s="1">
         <v>36.299999999999997</v>
@@ -1150,10 +1182,11 @@
       <c r="G33" s="1">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44351.551408788</v>
+        <v>45812.551412037035</v>
       </c>
       <c r="B34" s="1">
         <v>36.299999999999997</v>
@@ -1173,10 +1206,11 @@
       <c r="G34" s="1">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44351.5516947707</v>
+        <v>45812.551689814813</v>
       </c>
       <c r="B35" s="1">
         <v>36.9</v>
@@ -1196,10 +1230,11 @@
       <c r="G35" s="1">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>44351.551981921599</v>
+        <v>45812.551979166667</v>
       </c>
       <c r="B36" s="1">
         <v>36.9</v>
@@ -1219,10 +1254,11 @@
       <c r="G36" s="1">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>44351.552269337299</v>
+        <v>45812.552268518521</v>
       </c>
       <c r="B37" s="1">
         <v>36.9</v>
@@ -1242,10 +1278,11 @@
       <c r="G37" s="1">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>44351.5525924869</v>
+        <v>45812.55259259259</v>
       </c>
       <c r="B38" s="1">
         <v>36.299999999999997</v>
@@ -1265,10 +1302,11 @@
       <c r="G38" s="1">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44351.5529156989</v>
+        <v>45812.552916666667</v>
       </c>
       <c r="B39" s="1">
         <v>36.299999999999997</v>
@@ -1288,10 +1326,11 @@
       <c r="G39" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44351.553240435598</v>
+        <v>45812.553240740737</v>
       </c>
       <c r="B40" s="1">
         <v>35.6</v>
@@ -1311,10 +1350,11 @@
       <c r="G40" s="1">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44351.553562177498</v>
+        <v>45812.553564814814</v>
       </c>
       <c r="B41" s="1">
         <v>35.6</v>
@@ -1334,10 +1374,11 @@
       <c r="G41" s="1">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44351.553885320704</v>
+        <v>45812.553888888891</v>
       </c>
       <c r="B42" s="1">
         <v>35.6</v>
@@ -1357,10 +1398,11 @@
       <c r="G42" s="1">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44351.554208584399</v>
+        <v>45812.554212962961</v>
       </c>
       <c r="B43" s="1">
         <v>35.6</v>
@@ -1380,10 +1422,11 @@
       <c r="G43" s="1">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44351.5545317738</v>
+        <v>45812.554537037038</v>
       </c>
       <c r="B44" s="1">
         <v>35.6</v>
@@ -1403,10 +1446,11 @@
       <c r="G44" s="1">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44351.554854804097</v>
+        <v>45812.554849537039</v>
       </c>
       <c r="B45" s="1">
         <v>35.6</v>
@@ -1426,10 +1470,11 @@
       <c r="G45" s="1">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44351.555178011098</v>
+        <v>45812.555173611108</v>
       </c>
       <c r="B46" s="1">
         <v>35.200000000000003</v>
@@ -1449,10 +1494,11 @@
       <c r="G46" s="1">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44351.555501146897</v>
+        <v>45812.555497685185</v>
       </c>
       <c r="B47" s="1">
         <v>35.6</v>
@@ -1472,10 +1518,11 @@
       <c r="G47" s="1">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44351.555824200797</v>
+        <v>45812.555821759262</v>
       </c>
       <c r="B48" s="1">
         <v>35.6</v>
@@ -1495,10 +1542,11 @@
       <c r="G48" s="1">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44351.5561471482</v>
+        <v>45812.556145833332</v>
       </c>
       <c r="B49" s="1">
         <v>36.299999999999997</v>
@@ -1518,10 +1566,11 @@
       <c r="G49" s="1">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44351.556470413001</v>
+        <v>45812.556469907409</v>
       </c>
       <c r="B50" s="1">
         <v>36.299999999999997</v>
@@ -1541,10 +1590,11 @@
       <c r="G50" s="1">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44351.556793361298</v>
+        <v>45812.556793981479</v>
       </c>
       <c r="B51" s="1">
         <v>35.6</v>
@@ -1564,10 +1614,11 @@
       <c r="G51" s="1">
         <v>65.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44351.557116585398</v>
+        <v>45812.557118055556</v>
       </c>
       <c r="B52" s="1">
         <v>35.6</v>
@@ -1587,10 +1638,11 @@
       <c r="G52" s="1">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44351.557439784199</v>
+        <v>45812.557442129626</v>
       </c>
       <c r="B53" s="1">
         <v>35.6</v>
@@ -1610,10 +1662,11 @@
       <c r="G53" s="1">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44351.5577627569</v>
+        <v>45812.557766203703</v>
       </c>
       <c r="B54" s="1">
         <v>35.6</v>
@@ -1633,10 +1686,11 @@
       <c r="G54" s="1">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44351.558049726198</v>
+        <v>45812.55804398148</v>
       </c>
       <c r="B55" s="1">
         <v>35.6</v>
@@ -1656,10 +1710,11 @@
       <c r="G55" s="1">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44351.558373022803</v>
+        <v>45812.558368055557</v>
       </c>
       <c r="B56" s="1">
         <v>35.200000000000003</v>
@@ -1679,10 +1734,11 @@
       <c r="G56" s="1">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44351.558695892702</v>
+        <v>45812.558692129627</v>
       </c>
       <c r="B57" s="1">
         <v>35.200000000000003</v>
@@ -1702,10 +1758,11 @@
       <c r="G57" s="1">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44351.5589830639</v>
+        <v>45812.558981481481</v>
       </c>
       <c r="B58" s="1">
         <v>35.200000000000003</v>
@@ -1725,10 +1782,11 @@
       <c r="G58" s="1">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44351.559270207101</v>
+        <v>45812.559270833335</v>
       </c>
       <c r="B59" s="1">
         <v>35.200000000000003</v>
@@ -1748,10 +1806,11 @@
       <c r="G59" s="1">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44351.559557346103</v>
+        <v>45812.559560185182</v>
       </c>
       <c r="B60" s="1">
         <v>35.200000000000003</v>
@@ -1771,10 +1830,11 @@
       <c r="G60" s="1">
         <v>65.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44351.559844545198</v>
+        <v>45812.559849537036</v>
       </c>
       <c r="B61" s="1">
         <v>35.200000000000003</v>
@@ -1794,10 +1854,11 @@
       <c r="G61" s="1">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44351.560131580402</v>
+        <v>45812.560127314813</v>
       </c>
       <c r="B62" s="1">
         <v>35.200000000000003</v>
@@ -1817,10 +1878,11 @@
       <c r="G62" s="1">
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44351.5604189968</v>
+        <v>45812.560416666667</v>
       </c>
       <c r="B63" s="1">
         <v>35.200000000000003</v>
@@ -1840,10 +1902,11 @@
       <c r="G63" s="1">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44351.560706355798</v>
+        <v>45812.560706018521</v>
       </c>
       <c r="B64" s="1">
         <v>35.200000000000003</v>
@@ -1863,10 +1926,11 @@
       <c r="G64" s="1">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44351.5610294082</v>
+        <v>45812.561030092591</v>
       </c>
       <c r="B65" s="1">
         <v>35.200000000000003</v>
@@ -1886,10 +1950,11 @@
       <c r="G65" s="1">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44351.5613166943</v>
+        <v>45812.561319444445</v>
       </c>
       <c r="B66" s="1">
         <v>35.200000000000003</v>
@@ -1909,10 +1974,11 @@
       <c r="G66" s="1">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44351.561604003597</v>
+        <v>45812.561608796299</v>
       </c>
       <c r="B67" s="1">
         <v>35.200000000000003</v>
@@ -1932,10 +1998,11 @@
       <c r="G67" s="1">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44351.561891312202</v>
+        <v>45812.561886574076</v>
       </c>
       <c r="B68" s="1">
         <v>35.200000000000003</v>
@@ -1955,10 +2022,11 @@
       <c r="G68" s="1">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44351.562178777502</v>
+        <v>45812.562175925923</v>
       </c>
       <c r="B69" s="1">
         <v>35.200000000000003</v>
@@ -1978,10 +2046,11 @@
       <c r="G69" s="1">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44351.562466116797</v>
+        <v>45812.562465277777</v>
       </c>
       <c r="B70" s="1">
         <v>35.200000000000003</v>
@@ -2001,10 +2070,11 @@
       <c r="G70" s="1">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44351.562753401697</v>
+        <v>45812.562754629631</v>
       </c>
       <c r="B71" s="1">
         <v>35.200000000000003</v>
@@ -2024,10 +2094,11 @@
       <c r="G71" s="1">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44351.563040466099</v>
+        <v>45812.563043981485</v>
       </c>
       <c r="B72" s="1">
         <v>34.700000000000003</v>
@@ -2047,10 +2118,11 @@
       <c r="G72" s="1">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44351.563327819204</v>
+        <v>45812.563333333332</v>
       </c>
       <c r="B73" s="1">
         <v>34.200000000000003</v>
@@ -2070,10 +2142,11 @@
       <c r="G73" s="1">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44351.563614869301</v>
+        <v>45812.563611111109</v>
       </c>
       <c r="B74" s="1">
         <v>34.200000000000003</v>
@@ -2093,10 +2166,11 @@
       <c r="G74" s="1">
         <v>66.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44351.563902261201</v>
+        <v>45812.563900462963</v>
       </c>
       <c r="B75" s="1">
         <v>34.200000000000003</v>
@@ -2116,10 +2190,11 @@
       <c r="G75" s="1">
         <v>66.099999999999994</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44351.564189615397</v>
+        <v>45812.564189814817</v>
       </c>
       <c r="B76" s="1">
         <v>34.200000000000003</v>
@@ -2139,10 +2214,11 @@
       <c r="G76" s="1">
         <v>66.099999999999994</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44351.564476798099</v>
+        <v>45812.564479166664</v>
       </c>
       <c r="B77" s="1">
         <v>34.200000000000003</v>
@@ -2162,10 +2238,11 @@
       <c r="G77" s="1">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44351.564764553797</v>
+        <v>45812.564768518518</v>
       </c>
       <c r="B78" s="1">
         <v>34.700000000000003</v>
@@ -2185,10 +2262,11 @@
       <c r="G78" s="1">
         <v>66.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44351.565051910802</v>
+        <v>45812.565046296295</v>
       </c>
       <c r="B79" s="1">
         <v>34.700000000000003</v>
@@ -2208,10 +2286,11 @@
       <c r="G79" s="1">
         <v>66.099999999999994</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44351.565266901103</v>
+        <v>45812.565266203703</v>
       </c>
       <c r="B80" s="1">
         <v>34.700000000000003</v>
@@ -2231,10 +2310,11 @@
       <c r="G80" s="1">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44351.565518532399</v>
+        <v>45812.565520833334</v>
       </c>
       <c r="B81" s="1">
         <v>34.700000000000003</v>
@@ -2254,6 +2334,7 @@
       <c r="G81" s="1">
         <v>66.599999999999994</v>
       </c>
+      <c r="H81" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
